--- a/data/trans_camb/POLIPATOLOGIA_2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 11,24</t>
+          <t>2,63; 11,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,74</t>
+          <t>0,11; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 23,08</t>
+          <t>13,15; 22,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,15</t>
+          <t>8,2; 18,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 12,99</t>
+          <t>2,81; 12,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 20,09</t>
+          <t>5,29; 19,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 13,51</t>
+          <t>6,65; 13,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,6</t>
+          <t>3,01; 9,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 20,51</t>
+          <t>11,75; 20,52</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 66,91</t>
+          <t>13,02; 69,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 53,22</t>
+          <t>0,25; 51,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,13; 139,17</t>
+          <t>64,01; 137,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 65,99</t>
+          <t>25,16; 67,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 47,61</t>
+          <t>8,54; 47,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,05; 71,07</t>
+          <t>18,78; 72,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 59,87</t>
+          <t>25,56; 59,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 42,07</t>
+          <t>11,81; 42,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,82; 90,08</t>
+          <t>47,37; 89,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,61</t>
+          <t>0,26; 7,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,67</t>
+          <t>-0,43; 7,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 10,37</t>
+          <t>-8,02; 10,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,29</t>
+          <t>-0,62; 8,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 8,04</t>
+          <t>-1,34; 7,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 14,87</t>
+          <t>6,72; 15,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,07</t>
+          <t>0,99; 6,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,53</t>
+          <t>0,25; 6,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 10,98</t>
+          <t>-6,52; 10,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 41,81</t>
+          <t>1,29; 44,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 37,01</t>
+          <t>-1,99; 39,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 54,1</t>
+          <t>-38,37; 52,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 26,12</t>
+          <t>-1,67; 27,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 25,09</t>
+          <t>-3,67; 24,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,79; 47,32</t>
+          <t>18,42; 47,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 27,9</t>
+          <t>3,55; 26,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 25,04</t>
+          <t>0,84; 23,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 41,29</t>
+          <t>-22,82; 40,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,83</t>
+          <t>-3,04; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,09</t>
+          <t>-2,19; 6,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 17,43</t>
+          <t>8,07; 17,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,08</t>
+          <t>-7,99; 2,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,97</t>
+          <t>-10,92; -0,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 41,6</t>
+          <t>4,72; 39,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,51</t>
+          <t>-3,61; 2,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,64</t>
+          <t>-5,32; 1,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 35,2</t>
+          <t>8,8; 35,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 32,18</t>
+          <t>-13,48; 32,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 33,97</t>
+          <t>-10,44; 37,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,49; 95,52</t>
+          <t>35,19; 100,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 6,41</t>
+          <t>-20,17; 6,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -2,49</t>
+          <t>-27,55; -2,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 119,84</t>
+          <t>12,24; 114,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 9,39</t>
+          <t>-11,91; 10,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 6,17</t>
+          <t>-17,54; 6,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 126,94</t>
+          <t>29,94; 126,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,34</t>
+          <t>2,01; 9,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,99</t>
+          <t>2,6; 10,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,7</t>
+          <t>10,1; 18,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,04</t>
+          <t>1,64; 10,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,25</t>
+          <t>-0,05; 8,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,36; 27,87</t>
+          <t>11,94; 27,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,04</t>
+          <t>2,57; 8,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,94</t>
+          <t>2,22; 8,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 23,6</t>
+          <t>12,38; 22,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,91; 50,14</t>
+          <t>8,86; 53,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,08; 55,01</t>
+          <t>11,8; 54,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,04; 95,69</t>
+          <t>45,24; 99,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 32,84</t>
+          <t>4,55; 34,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 26,24</t>
+          <t>-0,12; 27,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,88; 84,52</t>
+          <t>33,56; 86,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 34,86</t>
+          <t>9,22; 33,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,01; 31,07</t>
+          <t>7,67; 32,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,53; 87,31</t>
+          <t>43,33; 85,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>2,52; 6,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,13</t>
+          <t>2,05; 6,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,52; 13,91</t>
+          <t>4,45; 13,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,43</t>
+          <t>2,9; 7,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,94</t>
+          <t>0,15; 4,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,44; 24,85</t>
+          <t>11,28; 25,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,49</t>
+          <t>3,25; 6,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,8; 4,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,92</t>
+          <t>9,57; 19,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,53</t>
+          <t>11,93; 35,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,23; 32,23</t>
+          <t>10,27; 32,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,59; 72,01</t>
+          <t>23,42; 71,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,34; 23,05</t>
+          <t>8,1; 23,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,09</t>
+          <t>0,5; 15,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>33,86; 73,98</t>
+          <t>32,79; 74,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,78; 24,8</t>
+          <t>11,51; 24,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,13</t>
+          <t>6,54; 18,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,18; 72,2</t>
+          <t>35,07; 71,72</t>
         </is>
       </c>
     </row>
